--- a/biology/Biochimie/Coenzyme_B/Coenzyme_B.xlsx
+++ b/biology/Biochimie/Coenzyme_B/Coenzyme_B.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La coenzyme B, abrégée en CoB–SH, in extenso 7-mercaptoheptanoylthréonine phosphate, est une coenzyme intervenant dans les réactions d'oxydo-réduction de la méthanogenèse chez les archées méthanogènes[2]. La molécule contient un groupement thiol –SH, qui est le principal site réactionnel.
-La coenzyme B réagit avec la méthyl-coenzyme M afin de libérer le méthane lors de la méthanogenèse[3] :
+La coenzyme B, abrégée en CoB–SH, in extenso 7-mercaptoheptanoylthréonine phosphate, est une coenzyme intervenant dans les réactions d'oxydo-réduction de la méthanogenèse chez les archées méthanogènes. La molécule contient un groupement thiol –SH, qui est le principal site réactionnel.
+La coenzyme B réagit avec la méthyl-coenzyme M afin de libérer le méthane lors de la méthanogenèse :
 CoB–SH + CH3–S–CoM →  CoB–S–S–CoM + CH4.
 Cette réaction est catalysée par la méthyl-coenzyme M réductase, avec le cofacteur F430 comme groupement prosthétique.
-Une réaction apparentée, utilisant à la fois CoB–SH et CoM–SH, est la réduction du fumarate en succinate, catalysée par la fumarate réductase[4] :
+Une réaction apparentée, utilisant à la fois CoB–SH et CoM–SH, est la réduction du fumarate en succinate, catalysée par la fumarate réductase :
 CoB–SH + HS–CoM + −OOC–CH=CH–COO− →  CoB-S-S-CoM + −OOC–CH2–CH2–COO−.</t>
         </is>
       </c>
